--- a/biology/Zoologie/Hypsogastropoda/Hypsogastropoda.xlsx
+++ b/biology/Zoologie/Hypsogastropoda/Hypsogastropoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hypsogastropoda sont un clade (ordre, super-ordre ou sous-ordre suivant les classifications) de mollusques prosobranches de la classe des gastéropodes, selon la classification de Bouchet &amp; Rocroi, 2005.
 La taxinomie des gastéropodes étant encore incomplètement comprise, cet ordre n'existe pas dans World Register of Marine Species, qui le considère comme une alternative synonyme des Caenogastropoda, ou une très large sous-partie de ceux-ci. 
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Bouchet &amp; Rocroi, 2005[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Bouchet &amp; Rocroi, 2005 :
 infra-ordre Littorinimorpha Golikov &amp; Starobogatov, 1975
 infra-ordre Neogastropoda Milne Edwards, 1848
 infra-ordre Ptenoglossa Gray, 1853</t>
